--- a/Data/Input/Contatos_Ramper - Segmentos - Teste.xlsx
+++ b/Data/Input/Contatos_Ramper - Segmentos - Teste.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1190C76-F06B-4E8E-82D6-3FCA897A4214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7653DE86-79F5-45C0-8461-F1A01B175EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="AGRO BUSINESS" sheetId="1" r:id="rId1"/>
     <sheet name="CONSTRUCAO" sheetId="3" r:id="rId2"/>
     <sheet name="VAREJO" sheetId="6" r:id="rId3"/>
-    <sheet name="COOP" sheetId="5" r:id="rId4"/>
+    <sheet name="COOPERATIVA" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -732,7 +732,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
